--- a/app/tables/household_member/forms/household_member/household_member.xlsx
+++ b/app/tables/household_member/forms/household_member/household_member.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="3140" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="10520" yWindow="11460" windowWidth="29580" windowHeight="17640"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -197,15 +197,6 @@
     <t>values_list</t>
   </si>
   <si>
-    <t>Enter age of {{member_name}}:</t>
-  </si>
-  <si>
-    <t>Enter sex of {{member_name}}:</t>
-  </si>
-  <si>
-    <t>Does {{member_name}} contribute to the household income?</t>
-  </si>
-  <si>
     <t>calculation_name</t>
   </si>
   <si>
@@ -221,16 +212,25 @@
     <t>((data('age') % 2) == 1) ? "odd" : "even"</t>
   </si>
   <si>
-    <t>{{member_name}} age is {{evaluate calculates.ageIsOddOrEven}} in {{setting 'table_id'}}</t>
-  </si>
-  <si>
     <t>instance_name</t>
   </si>
   <si>
     <t>hideInContents</t>
   </si>
   <si>
-    <t>Data for household: {{household_id}}</t>
+    <t>Data for household: {{data.household_id}}</t>
+  </si>
+  <si>
+    <t>Enter age of {{data.member_name}}:</t>
+  </si>
+  <si>
+    <t>Enter sex of {{data.member_name}}:</t>
+  </si>
+  <si>
+    <t>{{data.member_name}} age is {{evaluate calculates.ageIsOddOrEven}} in {{setting 'table_id'}}</t>
+  </si>
+  <si>
+    <t>Does {{data.member_name}} contribute to the household income?</t>
   </si>
 </sst>
 </file>
@@ -603,20 +603,20 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" customWidth="1"/>
-    <col min="4" max="4" width="41.81640625" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="41.83203125" customWidth="1"/>
     <col min="5" max="5" width="40" customWidth="1"/>
-    <col min="6" max="6" width="14.81640625" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -633,21 +633,21 @@
         <v>38</v>
       </c>
       <c r="F1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="36.75" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="18" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -660,7 +660,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="18" customHeight="1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -668,10 +668,10 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18" customHeight="1">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -682,21 +682,21 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="62.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="62.5" customHeight="1">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="42" customHeight="1">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -707,10 +707,10 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="40.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="40.75" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -722,7 +722,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="35.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="35.5" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -734,7 +734,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="34.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="34.25" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -746,7 +746,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:6" ht="18" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -766,14 +766,14 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="18.1796875" customWidth="1"/>
-    <col min="3" max="3" width="11.6328125" customWidth="1"/>
-    <col min="4" max="4" width="16.1796875" customWidth="1"/>
+    <col min="1" max="2" width="18.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="22.25" customHeight="1">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -787,7 +787,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="22.25" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -798,7 +798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="22.25" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -809,8 +809,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="22.25" customHeight="1"/>
+    <row r="5" spans="1:4" ht="22.25" customHeight="1">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -821,7 +821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="22.25" customHeight="1">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -850,14 +850,14 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.453125" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>32</v>
       </c>
@@ -868,7 +868,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="18.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -876,7 +876,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="18.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -884,7 +884,7 @@
         <v>20130408</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="18.75" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>30</v>
       </c>
@@ -892,7 +892,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="18.75" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>42</v>
       </c>
@@ -901,9 +901,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="12.75" customHeight="1">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -927,16 +927,16 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.453125" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" customWidth="1"/>
-    <col min="3" max="3" width="23.36328125" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="46.1796875" customWidth="1"/>
+    <col min="5" max="5" width="46.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="17.5" customHeight="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -953,7 +953,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="132.75" customHeight="1">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -970,8 +970,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="4" spans="1:5" ht="12.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -991,26 +991,26 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1"/>
-    <col min="2" max="2" width="44.6328125" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="44.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="13.5" customHeight="1">
       <c r="A1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
